--- a/Luban/Configs/Datas/t_damage.xlsx
+++ b/Luban/Configs/Datas/t_damage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD7D126-69D1-4B56-81B6-1B0FB87F9A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF681011-A359-4301-850D-13609EA58E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12165" yWindow="3870" windowWidth="25395" windowHeight="11385" xr2:uid="{13531A32-7909-4970-BA24-322E21882C92}"/>
+    <workbookView xWindow="9660" yWindow="5175" windowWidth="22545" windowHeight="11385" xr2:uid="{13531A32-7909-4970-BA24-322E21882C92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>hurt</t>
   </si>
@@ -62,12 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>haltFrame_Target</t>
-  </si>
-  <si>
-    <t>haltFrame_Self</t>
-  </si>
-  <si>
     <t>true</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,6 +134,26 @@
   </si>
   <si>
     <t>DamageAttribute</t>
+  </si>
+  <si>
+    <t>haltFrame_target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>haltFrame_self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -507,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC29F38E-3F6F-4556-AA6F-474D3BAE2550}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -527,14 +541,15 @@
     <col min="10" max="10" width="16.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -561,89 +576,98 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>10000</v>
       </c>
@@ -651,13 +675,13 @@
         <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -672,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>10001</v>
       </c>
@@ -686,7 +710,7 @@
         <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -707,13 +731,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>10002</v>
       </c>
@@ -721,7 +745,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -742,10 +766,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Configs/Datas/t_damage.xlsx
+++ b/Luban/Configs/Datas/t_damage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF681011-A359-4301-850D-13609EA58E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B8AE45-69DA-41AB-AF46-08096C0F6880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="5175" windowWidth="22545" windowHeight="11385" xr2:uid="{13531A32-7909-4970-BA24-322E21882C92}"/>
+    <workbookView xWindow="15000" yWindow="2205" windowWidth="22545" windowHeight="11385" xr2:uid="{13531A32-7909-4970-BA24-322E21882C92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>hurt</t>
   </si>
@@ -153,6 +153,10 @@
   </si>
   <si>
     <t>伤害特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabs/effect/knockSmall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +528,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -701,6 +705,9 @@
       <c r="L4">
         <v>12</v>
       </c>
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5">
@@ -735,6 +742,9 @@
       </c>
       <c r="L5">
         <v>12</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">

--- a/Luban/Configs/Datas/t_damage.xlsx
+++ b/Luban/Configs/Datas/t_damage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B8AE45-69DA-41AB-AF46-08096C0F6880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D9F329-C6C7-45D2-9449-B14CB21F3552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15000" yWindow="2205" windowWidth="22545" windowHeight="11385" xr2:uid="{13531A32-7909-4970-BA24-322E21882C92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{13531A32-7909-4970-BA24-322E21882C92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>hurt</t>
   </si>
@@ -156,7 +156,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prefabs/effect/knockSmall</t>
+    <t>knockSmall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knockSmall,knockLarge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC29F38E-3F6F-4556-AA6F-474D3BAE2550}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
@@ -706,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -744,7 +748,7 @@
         <v>12</v>
       </c>
       <c r="M5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -767,7 +771,7 @@
         <v>1.5</v>
       </c>
       <c r="H6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -780,6 +784,47 @@
       </c>
       <c r="L6">
         <v>15</v>
+      </c>
+      <c r="M6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>10003</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Configs/Datas/t_damage.xlsx
+++ b/Luban/Configs/Datas/t_damage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D9F329-C6C7-45D2-9449-B14CB21F3552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC190A5-6B52-4369-BBAE-FBC8FC1F8D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{13531A32-7909-4970-BA24-322E21882C92}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>hurt</t>
   </si>
@@ -529,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC29F38E-3F6F-4556-AA6F-474D3BAE2550}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -736,7 +736,7 @@
         <v>0.8</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -812,7 +812,7 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -824,6 +824,44 @@
         <v>15</v>
       </c>
       <c r="M7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>10004</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>0.8</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>0.5</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>15</v>
+      </c>
+      <c r="M8" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Luban/Configs/Datas/t_damage.xlsx
+++ b/Luban/Configs/Datas/t_damage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC190A5-6B52-4369-BBAE-FBC8FC1F8D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28FA1C1-1EC6-45B7-8367-7B553CC02AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{13531A32-7909-4970-BA24-322E21882C92}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>hurt</t>
   </si>
@@ -162,6 +162,17 @@
   <si>
     <t>knockSmall,knockLarge</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>darkHitEffect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireHitEffect</t>
   </si>
 </sst>
 </file>
@@ -529,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC29F38E-3F6F-4556-AA6F-474D3BAE2550}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -707,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M4" t="s">
         <v>34</v>
@@ -736,7 +747,7 @@
         <v>0.8</v>
       </c>
       <c r="I5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -745,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M5" t="s">
         <v>34</v>
@@ -774,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -806,13 +817,13 @@
         <v>3</v>
       </c>
       <c r="G7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -824,7 +835,7 @@
         <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -841,16 +852,16 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="G8">
         <v>0.8</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="I8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -862,8 +873,49 @@
         <v>15</v>
       </c>
       <c r="M8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>10005</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.5</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Luban/Configs/Datas/t_damage.xlsx
+++ b/Luban/Configs/Datas/t_damage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28FA1C1-1EC6-45B7-8367-7B553CC02AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818F256E-557E-4511-8283-5170EB8D201A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{13531A32-7909-4970-BA24-322E21882C92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{13531A32-7909-4970-BA24-322E21882C92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,23 +156,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>knockSmall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>knockSmall,knockLarge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>false</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>darkHitEffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fireHitEffect</t>
+    <t>knockSmall.prefab,knockLarge.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>darkHitEffect.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fireHitEffect.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knockSmall.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -543,7 +544,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -835,7 +836,7 @@
         <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -873,7 +874,7 @@
         <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -884,7 +885,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -911,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
